--- a/Amazon/Functional Test Case.xlsx
+++ b/Amazon/Functional Test Case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8867F-E4AB-4A0C-B1F5-8ADC852A86B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BAE500-35B8-4B4F-AD9D-1A391909E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84682608-947B-440C-9098-5830D6C859D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Steps to Test Email/Mobile no,ensure valid password is entered .</t>
   </si>
   <si>
-    <t>aniketrathod27@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conf. msg should be displayed </t>
   </si>
   <si>
@@ -91,18 +88,6 @@
     <t xml:space="preserve">Appropriate error msg should be displayed </t>
   </si>
   <si>
-    <t>aniket#rathod27@gmail.com</t>
-  </si>
-  <si>
-    <t>aniket rathod27@gmail.com</t>
-  </si>
-  <si>
-    <t>7498042293#</t>
-  </si>
-  <si>
-    <t>74980ten</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Enter </t>
     </r>
@@ -129,33 +114,9 @@
     </r>
   </si>
   <si>
-    <t>07498042293</t>
-  </si>
-  <si>
     <t>Steps to test Password Text field , ensure that valid email / mobile no is entered</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Aniket@123</t>
-  </si>
-  <si>
-    <t>aniket@123</t>
-  </si>
-  <si>
-    <t>Aniket123#</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Enter </t>
     </r>
@@ -182,30 +143,15 @@
     </r>
   </si>
   <si>
-    <t>Anii@12</t>
-  </si>
-  <si>
-    <t>Aniket123</t>
-  </si>
-  <si>
     <t>Appropriate error msg should be displayed</t>
   </si>
   <si>
-    <t>Aniket@1234</t>
-  </si>
-  <si>
     <t>Actual Result</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Steps for Login Btn , ensure that valid email and password is eneterd</t>
-  </si>
-  <si>
     <t>Enter invalid password with 11 chars and click on Login btn.</t>
   </si>
   <si>
@@ -341,164 +287,6 @@
   </si>
   <si>
     <t xml:space="preserve">HomePage should be displayed </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Amazon WebApplication
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Module Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :Amazon Login
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Precondition </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: User is created
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TestData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-           User1: email = aniketsrathod27@gmail.com 
-                       Mobile no = 7498042293
-                       Password = Aniket@123
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Severity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Critical
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Testcase Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Functional  TestCase
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brief Description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Login User</t>
-    </r>
   </si>
   <si>
     <r>
@@ -627,6 +415,269 @@
       1.3 : Login Btn 
           1.3.1 : On clicking Login Btn , should navigate to homepage.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Amazon WebApplication
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Module Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :Amazon Login
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Precondition </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: User is created
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TestData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+           User1: email = aniketsrathod@gmail.com 
+                       Mobile no = 9607749553
+                       Password = Tester@123
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Severity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Critical
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Testcase Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Functional  TestCase
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brief Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Login User</t>
+    </r>
+  </si>
+  <si>
+    <t>aniketsrathod@gmail.com</t>
+  </si>
+  <si>
+    <t>aniket#rathod@gmail.com</t>
+  </si>
+  <si>
+    <t>aniket rathod@gmail.com</t>
+  </si>
+  <si>
+    <t>9607749553#</t>
+  </si>
+  <si>
+    <t>9607749553ten</t>
+  </si>
+  <si>
+    <t>09607749553</t>
+  </si>
+  <si>
+    <t>Tester@123</t>
+  </si>
+  <si>
+    <t>tester@123</t>
+  </si>
+  <si>
+    <t>Tester123</t>
+  </si>
+  <si>
+    <t>Tester123#</t>
+  </si>
+  <si>
+    <t>Tester@1234</t>
+  </si>
+  <si>
+    <t>Test@12</t>
+  </si>
+  <si>
+    <t>Steps for Login Btn , ensure that valid email and password is entered</t>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>TC-022</t>
   </si>
 </sst>
 </file>
@@ -687,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -703,6 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1020,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7B9D6-7C93-4A62-8459-1F16B87CE9DE}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1088,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1047,7 +1099,7 @@
     </row>
     <row r="4" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1064,15 +1116,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
+      <c r="A8" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1085,8 +1137,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
+      <c r="A9" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1096,270 +1148,274 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
+      <c r="A10" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>3.1</v>
+      <c r="A11" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9607749553</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3">
+        <v>96077495530</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3">
+        <v>960774955</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7498042293</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3">
-        <v>74980422930</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="3">
-        <v>749804229</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>4.3</v>
+      <c r="A25" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3">
         <v>12345678</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>4.4000000000000004</v>
+      <c r="A26" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>4.5</v>
+      <c r="A28" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>4.5999999999999996</v>
+      <c r="A29" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>4.7</v>
+      <c r="A30" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
       <c r="D33" t="s">
-        <v>51</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">

--- a/Amazon/Functional Test Case.xlsx
+++ b/Amazon/Functional Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BAE500-35B8-4B4F-AD9D-1A391909E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD0BEE8-EBC6-42D3-9A42-92F90C95862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84682608-947B-440C-9098-5830D6C859D6}"/>
   </bookViews>
@@ -725,7 +725,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -733,28 +733,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1072,33 +1088,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7B9D6-7C93-4A62-8459-1F16B87CE9DE}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="88.21875" customWidth="1"/>
-    <col min="3" max="3" width="44.77734375" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1106,393 +1123,367 @@
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>9607749553</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>96077495530</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>960774955</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>12345678</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="6"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37"/>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42"/>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43"/>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44"/>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47"/>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61"/>
-    </row>
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{6A504CD1-7BE5-4BDE-8F9E-911C37C6BB89}"/>
